--- a/Code.xlsx
+++ b/Code.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcl\Documents\GitHub\Homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64289C3A-FF81-4955-9AE4-B641BE721B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D501163-7273-4382-B046-4783E5D7DB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12855" xr2:uid="{0C8093D9-960C-4521-866B-7D90F756688E}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12855" activeTab="1" xr2:uid="{0C8093D9-960C-4521-866B-7D90F756688E}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
+    <sheet name="Music" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Image path</t>
   </si>
@@ -68,16 +69,151 @@
   </si>
   <si>
     <t>images\P1122697_27.jpg</t>
+  </si>
+  <si>
+    <t>Audio Path</t>
+  </si>
+  <si>
+    <t>music\Angel Eyes v2.wav</t>
+  </si>
+  <si>
+    <t>music\As We Go 4.wav</t>
+  </si>
+  <si>
+    <t>music\Baby I Need You(4)_96000.wav</t>
+  </si>
+  <si>
+    <t>music\Come Closer(2)_96000.wav</t>
+  </si>
+  <si>
+    <t>music\Didn't Want Her to Go.wav</t>
+  </si>
+  <si>
+    <t>music\Going Through Hell(2).wav</t>
+  </si>
+  <si>
+    <t>music\I Wanna Know(8.12.4) Mastered.wav</t>
+  </si>
+  <si>
+    <t>music\One Lonely Night(8)_96000.wav</t>
+  </si>
+  <si>
+    <t>music\Orion Suite 7.wav</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Angel Eyes</t>
+  </si>
+  <si>
+    <t>Going Through Hell</t>
+  </si>
+  <si>
+    <t>As We Go</t>
+  </si>
+  <si>
+    <t>Baby, I Need You</t>
+  </si>
+  <si>
+    <t>Come Closer</t>
+  </si>
+  <si>
+    <t>Didn't Want Her to Go</t>
+  </si>
+  <si>
+    <t>I Wanna Know</t>
+  </si>
+  <si>
+    <t>One Lonely Night</t>
+  </si>
+  <si>
+    <t>Song No.</t>
+  </si>
+  <si>
+    <t>Orion</t>
+  </si>
+  <si>
+    <t>&lt;a&gt;One Lonely Night:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\One Lonely Night(8)_96000.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>&lt;a&gt;Come Closer:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\Come Closer(2)_96000.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a&gt;Baby, I Need You:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\Baby I Need You(4)_96000.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a&gt;Going Through Hell:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\Going Through Hell(2).wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a&gt;I Wanna Know:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\I Wanna Know(8.12.4) Mastered.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a&gt;Angel Eyes:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\Angel Eyes v2.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a&gt;Didn't Want Her to Go:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\Didn't Want Her to Go.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a&gt;As We Go:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\As We Go 4.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a&gt;Orion:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\Orion Suite 7.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,13 +239,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -120,6 +267,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51654BE5-BBAE-42E6-9042-51E2BAD1DAD1}" name="Table1" displayName="Table1" ref="B3:F12" totalsRowShown="0">
+  <autoFilter ref="B3:F12" xr:uid="{51654BE5-BBAE-42E6-9042-51E2BAD1DAD1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E12">
+    <sortCondition ref="B3:B12"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2DE76A55-0DB5-4B4B-A2DF-736FD7E969F1}" name="Song No."/>
+    <tableColumn id="2" xr3:uid="{839CE102-F0BF-40B5-B42D-8B35CC3ACA48}" name="Title"/>
+    <tableColumn id="3" xr3:uid="{197F252F-55FE-4BC4-8511-C686607F345D}" name="Audio Path"/>
+    <tableColumn id="4" xr3:uid="{904C66A6-36E8-4DBF-AC39-21B4D5D7E4B2}" name="HTML Code" dataDxfId="1">
+      <calculatedColumnFormula>"&lt;a&gt;"&amp;C4&amp;":&lt;/a&gt; &lt;br&gt;&lt;br&gt;"&amp;CHAR(10)&amp;"&lt;audio controls&gt;"&amp; CHAR(10)&amp;"&lt;source src="&amp;""""&amp;D4&amp;""""&amp; " type=""audio/wav""&gt;"&amp;CHAR(10)&amp;"Your browser does not support the audio element."&amp;CHAR(10)&amp;"&lt;/audio&gt;"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{2BB3F742-34C7-4930-A3DB-520327E146AD}" name="Column1" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AF8F6C-542C-4910-820D-70C015E2AF22}">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
@@ -523,4 +689,245 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4325C0-2BE9-4651-9F28-DA5DDB8953F8}">
+  <dimension ref="B3:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.85546875" customWidth="1"/>
+    <col min="6" max="6" width="182.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>"&lt;a&gt;"&amp;C4&amp;":&lt;/a&gt; &lt;br&gt;&lt;br&gt;"&amp;CHAR(10)&amp;"&lt;audio controls&gt;"&amp; CHAR(10)&amp;"&lt;source src="&amp;""""&amp;D4&amp;""""&amp; " type=""audio/wav""&gt;"&amp;CHAR(10)&amp;"Your browser does not support the audio element."&amp;CHAR(10)&amp;"&lt;/audio&gt;"</f>
+        <v>&lt;a&gt;One Lonely Night:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\One Lonely Night(8)_96000.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>"&lt;a&gt;"&amp;C5&amp;":&lt;/a&gt; &lt;br&gt;&lt;br&gt;"&amp;CHAR(10)&amp;"&lt;audio controls&gt;"&amp; CHAR(10)&amp;"&lt;source src="&amp;""""&amp;D5&amp;""""&amp; " type=""audio/wav""&gt;"&amp;CHAR(10)&amp;"Your browser does not support the audio element."&amp;CHAR(10)&amp;"&lt;/audio&gt;"</f>
+        <v>&lt;a&gt;Come Closer:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\Come Closer(2)_96000.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>"&lt;a&gt;"&amp;C6&amp;":&lt;/a&gt; &lt;br&gt;&lt;br&gt;"&amp;CHAR(10)&amp;"&lt;audio controls&gt;"&amp; CHAR(10)&amp;"&lt;source src="&amp;""""&amp;D6&amp;""""&amp; " type=""audio/wav""&gt;"&amp;CHAR(10)&amp;"Your browser does not support the audio element."&amp;CHAR(10)&amp;"&lt;/audio&gt;"</f>
+        <v>&lt;a&gt;Baby, I Need You:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\Baby I Need You(4)_96000.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>"&lt;a&gt;"&amp;C7&amp;":&lt;/a&gt; &lt;br&gt;&lt;br&gt;"&amp;CHAR(10)&amp;"&lt;audio controls&gt;"&amp; CHAR(10)&amp;"&lt;source src="&amp;""""&amp;D7&amp;""""&amp; " type=""audio/wav""&gt;"&amp;CHAR(10)&amp;"Your browser does not support the audio element."&amp;CHAR(10)&amp;"&lt;/audio&gt;"</f>
+        <v>&lt;a&gt;Going Through Hell:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\Going Through Hell(2).wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>"&lt;a&gt;"&amp;C8&amp;":&lt;/a&gt; &lt;br&gt;&lt;br&gt;"&amp;CHAR(10)&amp;"&lt;audio controls&gt;"&amp; CHAR(10)&amp;"&lt;source src="&amp;""""&amp;D8&amp;""""&amp; " type=""audio/wav""&gt;"&amp;CHAR(10)&amp;"Your browser does not support the audio element."&amp;CHAR(10)&amp;"&lt;/audio&gt;"</f>
+        <v>&lt;a&gt;I Wanna Know:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\I Wanna Know(8.12.4) Mastered.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>"&lt;a&gt;"&amp;C9&amp;":&lt;/a&gt; &lt;br&gt;&lt;br&gt;"&amp;CHAR(10)&amp;"&lt;audio controls&gt;"&amp; CHAR(10)&amp;"&lt;source src="&amp;""""&amp;D9&amp;""""&amp; " type=""audio/wav""&gt;"&amp;CHAR(10)&amp;"Your browser does not support the audio element."&amp;CHAR(10)&amp;"&lt;/audio&gt;"</f>
+        <v>&lt;a&gt;Angel Eyes:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\Angel Eyes v2.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>"&lt;a&gt;"&amp;C10&amp;":&lt;/a&gt; &lt;br&gt;&lt;br&gt;"&amp;CHAR(10)&amp;"&lt;audio controls&gt;"&amp; CHAR(10)&amp;"&lt;source src="&amp;""""&amp;D10&amp;""""&amp; " type=""audio/wav""&gt;"&amp;CHAR(10)&amp;"Your browser does not support the audio element."&amp;CHAR(10)&amp;"&lt;/audio&gt;"</f>
+        <v>&lt;a&gt;Didn't Want Her to Go:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\Didn't Want Her to Go.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>"&lt;a&gt;"&amp;C11&amp;":&lt;/a&gt; &lt;br&gt;&lt;br&gt;"&amp;CHAR(10)&amp;"&lt;audio controls&gt;"&amp; CHAR(10)&amp;"&lt;source src="&amp;""""&amp;D11&amp;""""&amp; " type=""audio/wav""&gt;"&amp;CHAR(10)&amp;"Your browser does not support the audio element."&amp;CHAR(10)&amp;"&lt;/audio&gt;"</f>
+        <v>&lt;a&gt;As We Go:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\As We Go 4.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>"&lt;a&gt;"&amp;C12&amp;":&lt;/a&gt; &lt;br&gt;&lt;br&gt;"&amp;CHAR(10)&amp;"&lt;audio controls&gt;"&amp; CHAR(10)&amp;"&lt;source src="&amp;""""&amp;D12&amp;""""&amp; " type=""audio/wav""&gt;"&amp;CHAR(10)&amp;"Your browser does not support the audio element."&amp;CHAR(10)&amp;"&lt;/audio&gt;"</f>
+        <v>&lt;a&gt;Orion:&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;audio controls&gt;
+&lt;source src="music\Orion Suite 7.wav" type="audio/wav"&gt;
+Your browser does not support the audio element.
+&lt;/audio&gt;</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>